--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2518630.28415637</v>
+        <v>2517917.982333326</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1224,49 +1224,49 @@
         <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>166.0289796675928</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>127.1167502254356</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>99.93945338461867</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T12" t="n">
+        <v>36.82265945242245</v>
+      </c>
+      <c r="U12" t="n">
+        <v>128.507918597654</v>
+      </c>
+      <c r="V12" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="U12" t="n">
-        <v>59.07980534382081</v>
-      </c>
-      <c r="V12" t="n">
-        <v>62.50065676233444</v>
-      </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.59959100498109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>80.27118874678746</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>125.7333640750896</v>
       </c>
       <c r="C15" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693651</v>
+        <v>13.44252716693649</v>
       </c>
       <c r="T15" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382078</v>
       </c>
       <c r="V15" t="n">
-        <v>173.9427685145788</v>
+        <v>62.50065676233442</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394379</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256632</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524205</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
+        <v>43.05661780009651</v>
+      </c>
+      <c r="T18" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>166.0289796675928</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>60.63479712118372</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>91.79422284802041</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156605</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>34.93451846729464</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>31.30917887851527</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E26" t="n">
         <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G26" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444717</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818224</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.82753755897635</v>
       </c>
       <c r="S27" t="n">
-        <v>80.88312680326339</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489263</v>
+        <v>1.486173081489235</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301057</v>
+        <v>53.21983305301055</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147508</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.0322440344472</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818268</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>71.60164275805214</v>
+        <v>197.9379029608346</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="32">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>65.04276855772504</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>0.6584632146249672</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280694968886</v>
+        <v>22.9156091060233</v>
       </c>
       <c r="V33" t="n">
-        <v>56.21799134783501</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215645</v>
       </c>
       <c r="C35" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491004</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595856</v>
+        <v>65.7129913859585</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536737</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837447</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063797</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228178</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288324</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949811</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843735</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621811</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>99.77754706573378</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>210.0810150728774</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229683</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306655</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215645</v>
       </c>
       <c r="C38" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491004</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595856</v>
+        <v>65.7129913859585</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536737</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837447</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063797</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228178</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288324</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949811</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843735</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621811</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>80.16410009349637</v>
       </c>
       <c r="U39" t="n">
-        <v>158.1711855393847</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229683</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306655</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7623904267513</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4691428461602</v>
+        <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471726</v>
+        <v>177.8284037471725</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0116293930746</v>
+        <v>106.0116293930745</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173763</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367603</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8866946102909</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>124.0675518141811</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>22.31494261786567</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153561</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308962</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973918</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385934</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657039</v>
+        <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
         <v>96.76239042675124</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>140.6248581410958</v>
       </c>
       <c r="V45" t="n">
-        <v>136.2368316478356</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4796,58 +4796,58 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="F9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,49 +4884,49 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
-        <v>9.757711402041103</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.950635850029798</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.950635850029798</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.1878275815396</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="C11" t="n">
-        <v>373.1878275815396</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="D11" t="n">
-        <v>373.1878275815396</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="E11" t="n">
-        <v>182.7858747338153</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="F11" t="n">
-        <v>182.7858747338153</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>184.7866959522389</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L11" t="n">
-        <v>231.507538432999</v>
+        <v>346.5451906122114</v>
       </c>
       <c r="M11" t="n">
-        <v>418.1204924190536</v>
+        <v>533.1581445982661</v>
       </c>
       <c r="N11" t="n">
-        <v>493.448385554746</v>
+        <v>719.7710985843207</v>
       </c>
       <c r="O11" t="n">
-        <v>680.0613395408006</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="P11" t="n">
-        <v>680.0613395408006</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769885</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="S11" t="n">
-        <v>753.9917332769885</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="T11" t="n">
-        <v>753.9917332769885</v>
+        <v>692.3241590587555</v>
       </c>
       <c r="U11" t="n">
-        <v>753.9917332769885</v>
+        <v>619.5945859884707</v>
       </c>
       <c r="V11" t="n">
-        <v>753.9917332769885</v>
+        <v>475.4213340126281</v>
       </c>
       <c r="W11" t="n">
-        <v>753.9917332769885</v>
+        <v>314.0595161614169</v>
       </c>
       <c r="X11" t="n">
-        <v>753.9917332769885</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="Y11" t="n">
-        <v>563.5897804292641</v>
+        <v>185.6587583579466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>252.4988905662377</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C12" t="n">
-        <v>243.0343578679567</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>243.0343578679567</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>243.0343578679567</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>243.0343578679567</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>243.0343578679567</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>116.0287774782859</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
         <v>15.07983466553977</v>
@@ -5121,49 +5121,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769885</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769885</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073556</v>
+        <v>556.6509361119296</v>
       </c>
       <c r="T12" t="n">
-        <v>550.0114701596312</v>
+        <v>519.4563306044322</v>
       </c>
       <c r="U12" t="n">
-        <v>490.3348991052668</v>
+        <v>389.6503522229635</v>
       </c>
       <c r="V12" t="n">
-        <v>427.2029225776562</v>
+        <v>199.2483993752392</v>
       </c>
       <c r="W12" t="n">
-        <v>337.7520948767029</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X12" t="n">
-        <v>298.1918420621546</v>
+        <v>70.23731885973763</v>
       </c>
       <c r="Y12" t="n">
-        <v>252.4988905662377</v>
+        <v>24.54436736382067</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>54.43503283403342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>54.43503283403342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>54.43503283403342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I13" t="n">
-        <v>54.43503283403342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J13" t="n">
-        <v>54.43503283403342</v>
+        <v>61.1569560145218</v>
       </c>
       <c r="K13" t="n">
-        <v>54.43503283403342</v>
+        <v>61.1569560145218</v>
       </c>
       <c r="L13" t="n">
-        <v>198.9715162598734</v>
+        <v>61.1569560145218</v>
       </c>
       <c r="M13" t="n">
-        <v>350.373601026506</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="N13" t="n">
-        <v>350.373601026506</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348926</v>
+        <v>351.8217271348925</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351834</v>
+        <v>470.2946957351833</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117138</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099491</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>547.8646454795637</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="C14" t="n">
-        <v>459.3802101209969</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="D14" t="n">
-        <v>459.3802101209969</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="E14" t="n">
-        <v>459.3802101209969</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="F14" t="n">
-        <v>268.9782572732725</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="G14" t="n">
-        <v>78.57630442554813</v>
+        <v>96.16184350067843</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554813</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5282,46 +5282,46 @@
         <v>15.07983466553977</v>
       </c>
       <c r="L14" t="n">
-        <v>61.80067714629985</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="M14" t="n">
-        <v>248.4136311323545</v>
+        <v>282.5546877385416</v>
       </c>
       <c r="N14" t="n">
-        <v>323.7415242680469</v>
+        <v>405.9530504069745</v>
       </c>
       <c r="O14" t="n">
-        <v>510.3544782541015</v>
+        <v>592.5660043930292</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769885</v>
+        <v>704.1243288271093</v>
       </c>
       <c r="T14" t="n">
-        <v>709.2264633307749</v>
+        <v>704.1243288271093</v>
       </c>
       <c r="U14" t="n">
-        <v>709.2264633307749</v>
+        <v>631.3947557568243</v>
       </c>
       <c r="V14" t="n">
-        <v>709.2264633307749</v>
+        <v>631.3947557568243</v>
       </c>
       <c r="W14" t="n">
-        <v>547.8646454795637</v>
+        <v>470.0329379056132</v>
       </c>
       <c r="X14" t="n">
-        <v>547.8646454795637</v>
+        <v>286.5637963484028</v>
       </c>
       <c r="Y14" t="n">
-        <v>547.8646454795637</v>
+        <v>96.16184350067843</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.9922566001716</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018907</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
         <v>15.07983466553977</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900212</v>
+        <v>740.4134230073556</v>
       </c>
       <c r="T15" t="n">
-        <v>543.0726258422968</v>
+        <v>550.0114701596312</v>
       </c>
       <c r="U15" t="n">
-        <v>483.3960547879324</v>
+        <v>490.3348991052668</v>
       </c>
       <c r="V15" t="n">
-        <v>307.6962886115901</v>
+        <v>427.2029225776563</v>
       </c>
       <c r="W15" t="n">
-        <v>218.2454609106368</v>
+        <v>236.8009697299319</v>
       </c>
       <c r="X15" t="n">
-        <v>178.6852080960886</v>
+        <v>197.2407169153837</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.9922566001716</v>
+        <v>151.5477654194667</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>27.18003706804298</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>59.8159948313765</v>
+        <v>47.71579242887331</v>
       </c>
       <c r="E16" t="n">
-        <v>59.8159948313765</v>
+        <v>83.82319414030772</v>
       </c>
       <c r="F16" t="n">
-        <v>59.8159948313765</v>
+        <v>122.6523622555827</v>
       </c>
       <c r="G16" t="n">
-        <v>69.16900916503268</v>
+        <v>122.6523622555827</v>
       </c>
       <c r="H16" t="n">
-        <v>69.16900916503268</v>
+        <v>122.6523622555827</v>
       </c>
       <c r="I16" t="n">
-        <v>69.16900916503268</v>
+        <v>122.6523622555827</v>
       </c>
       <c r="J16" t="n">
-        <v>126.4985791694899</v>
+        <v>179.98193226004</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4985791694899</v>
+        <v>289.989033433779</v>
       </c>
       <c r="L16" t="n">
-        <v>126.4985791694899</v>
+        <v>289.989033433779</v>
       </c>
       <c r="M16" t="n">
-        <v>126.4985791694899</v>
+        <v>289.989033433779</v>
       </c>
       <c r="N16" t="n">
-        <v>286.5104048854385</v>
+        <v>450.0008591497276</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423774</v>
+        <v>520.716661142668</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117138</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099491</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
@@ -5516,49 +5516,49 @@
         <v>201.6927886515944</v>
       </c>
       <c r="K17" t="n">
-        <v>388.3057426376491</v>
+        <v>388.305742637649</v>
       </c>
       <c r="L17" t="n">
-        <v>435.0265851184092</v>
+        <v>494.3499367568303</v>
       </c>
       <c r="M17" t="n">
-        <v>515.8884842053565</v>
+        <v>575.2118358437775</v>
       </c>
       <c r="N17" t="n">
-        <v>618.2306342951493</v>
+        <v>650.5397289794698</v>
       </c>
       <c r="O17" t="n">
-        <v>652.451268987817</v>
+        <v>684.7603636721375</v>
       </c>
       <c r="P17" t="n">
-        <v>652.451268987817</v>
+        <v>684.7603636721375</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.451268987817</v>
+        <v>684.7603636721375</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9917332769885</v>
+        <v>684.7603636721375</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
         <v>538.6656803998542</v>
@@ -5610,34 +5610,34 @@
         <v>670.3666200188885</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769885</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5897804292641</v>
+        <v>574.4195932879236</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5897804292641</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5897804292641</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="V18" t="n">
-        <v>395.8837403609886</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="W18" t="n">
-        <v>205.4817875132642</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="X18" t="n">
-        <v>205.4817875132642</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.07983466553977</v>
+        <v>193.6156875924749</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210048</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
@@ -5753,49 +5753,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629985</v>
+        <v>388.305742637649</v>
       </c>
       <c r="M20" t="n">
-        <v>248.4136311323545</v>
+        <v>469.1676417245962</v>
       </c>
       <c r="N20" t="n">
-        <v>323.7415242680469</v>
+        <v>544.4955348602884</v>
       </c>
       <c r="O20" t="n">
-        <v>510.3544782541015</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="P20" t="n">
-        <v>632.9356035051036</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.9356035051036</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="R20" t="n">
-        <v>632.9356035051036</v>
+        <v>680.2566338421275</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051036</v>
+        <v>749.4880034469784</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.3324902821064</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C21" t="n">
-        <v>292.3324902821064</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D21" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E21" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G21" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H21" t="n">
         <v>15.07983466553977</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
         <v>538.6656803998542</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769885</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769885</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9917332769885</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="U21" t="n">
-        <v>753.9917332769885</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="V21" t="n">
-        <v>563.5897804292641</v>
+        <v>366.2619037522323</v>
       </c>
       <c r="W21" t="n">
-        <v>563.5897804292641</v>
+        <v>366.2619037522323</v>
       </c>
       <c r="X21" t="n">
-        <v>470.8683432090415</v>
+        <v>175.859950904508</v>
       </c>
       <c r="Y21" t="n">
-        <v>470.8683432090415</v>
+        <v>175.859950904508</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961949</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040795</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210059</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116204</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="J23" t="n">
-        <v>181.8828874657034</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="K23" t="n">
-        <v>181.8828874657034</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="L23" t="n">
-        <v>228.6037299464635</v>
+        <v>117.6741998406931</v>
       </c>
       <c r="M23" t="n">
-        <v>309.4656290334108</v>
+        <v>198.5360989276402</v>
       </c>
       <c r="N23" t="n">
-        <v>384.7935221691031</v>
+        <v>273.8639920633325</v>
       </c>
       <c r="O23" t="n">
-        <v>419.0141568617709</v>
+        <v>380.7658253048793</v>
       </c>
       <c r="P23" t="n">
-        <v>605.6271108478255</v>
+        <v>567.3787792909341</v>
       </c>
       <c r="Q23" t="n">
-        <v>605.6271108478255</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R23" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S23" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T23" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.500875753078</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>528.3023880380574</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C24" t="n">
-        <v>338.8901137710211</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>338.8901137710211</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769885</v>
+        <v>617.9111264193347</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769885</v>
+        <v>617.9111264193347</v>
       </c>
       <c r="T24" t="n">
-        <v>718.7043408857818</v>
+        <v>427.5091735716102</v>
       </c>
       <c r="U24" t="n">
-        <v>528.3023880380574</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="V24" t="n">
-        <v>528.3023880380574</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="W24" t="n">
-        <v>528.3023880380574</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="X24" t="n">
-        <v>528.3023880380574</v>
+        <v>46.70526787616126</v>
       </c>
       <c r="Y24" t="n">
-        <v>528.3023880380574</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874102</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942522</v>
+        <v>757.2538204942531</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350248</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471334</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141557</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7197485984502</v>
+        <v>63.71974859845</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514206</v>
@@ -6227,19 +6227,19 @@
         <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279523981</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581064</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.473663923988</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315172</v>
@@ -6257,7 +6257,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020825</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621683</v>
@@ -6269,7 +6269,7 @@
         <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.6968156541103</v>
+        <v>225.3289736821783</v>
       </c>
       <c r="C27" t="n">
-        <v>196.6968156541103</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D27" t="n">
         <v>35.91669941514206</v>
@@ -6306,49 +6306,49 @@
         <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102242</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>755.0428493067118</v>
       </c>
       <c r="S27" t="n">
-        <v>711.4204923671907</v>
+        <v>561.5167974683236</v>
       </c>
       <c r="T27" t="n">
-        <v>709.9193074363935</v>
+        <v>560.0156125375264</v>
       </c>
       <c r="U27" t="n">
-        <v>685.9361569587293</v>
+        <v>536.0324620598622</v>
       </c>
       <c r="V27" t="n">
-        <v>442.8564388623634</v>
+        <v>292.9527439634962</v>
       </c>
       <c r="W27" t="n">
-        <v>389.0990317381103</v>
+        <v>239.1953368392431</v>
       </c>
       <c r="X27" t="n">
-        <v>385.2321995002622</v>
+        <v>235.3285046013951</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.2326685810454</v>
+        <v>225.3289736821783</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="F28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="G28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="H28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="I28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="J28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="K28" t="n">
-        <v>86.64290924294508</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="L28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="M28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="N28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="O28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="P28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737329</v>
+        <v>48.13006019737323</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389701</v>
+        <v>39.61015627389698</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514206</v>
@@ -6440,40 +6440,40 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.79665798741</v>
+        <v>882.7966579874102</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942521</v>
+        <v>757.2538204942523</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350246</v>
+        <v>597.6637583350248</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471332</v>
+        <v>406.0329511471334</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141559</v>
+        <v>198.6052517141561</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845025</v>
+        <v>63.71974859845024</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514206</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523987</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
         <v>1458.473663923989</v>
@@ -6491,7 +6491,7 @@
         <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>386.1090899211466</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C30" t="n">
-        <v>196.6968156541103</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D30" t="n">
         <v>35.91669941514206</v>
@@ -6543,49 +6543,49 @@
         <v>35.91669941514206</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102242</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="T30" t="n">
-        <v>720.795728776495</v>
+        <v>586.2445004159458</v>
       </c>
       <c r="U30" t="n">
-        <v>481.1714161533752</v>
+        <v>562.2613499382816</v>
       </c>
       <c r="V30" t="n">
-        <v>453.7328602024648</v>
+        <v>319.1816318419156</v>
       </c>
       <c r="W30" t="n">
-        <v>399.9754530782116</v>
+        <v>49.78306257220695</v>
       </c>
       <c r="X30" t="n">
-        <v>396.1086208403635</v>
+        <v>45.91623033435885</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.1090899211466</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>35.91669941514206</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5357786856994</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5357786856994</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F31" t="n">
-        <v>103.5357786856994</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="L31" t="n">
-        <v>147.8719145265794</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="M31" t="n">
-        <v>147.8719145265794</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="N31" t="n">
-        <v>147.8719145265794</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="O31" t="n">
-        <v>180.7574272613008</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7574272613008</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737334</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514206</v>
@@ -6677,22 +6677,22 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806689</v>
+        <v>877.5242945806684</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601012</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.063536073464</v>
+        <v>594.0635360734635</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581627</v>
+        <v>403.2687994581623</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465892</v>
+        <v>62.62773805465891</v>
       </c>
       <c r="I32" t="n">
         <v>35.66075944394098</v>
@@ -6701,25 +6701,25 @@
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>357.4097545154543</v>
+        <v>357.4097545154539</v>
       </c>
       <c r="L32" t="n">
-        <v>616.299932783171</v>
+        <v>616.2999327831706</v>
       </c>
       <c r="M32" t="n">
-        <v>909.331167657075</v>
+        <v>909.3311676570745</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1196.828396579723</v>
       </c>
       <c r="O32" t="n">
         <v>1443.218367059348</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1640.446650218726</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338635</v>
       </c>
       <c r="R32" t="n">
         <v>1783.037972197049</v>
@@ -6731,19 +6731,19 @@
         <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.66075944394098</v>
+        <v>101.3605256638653</v>
       </c>
       <c r="C33" t="n">
-        <v>35.66075944394098</v>
+        <v>101.3605256638653</v>
       </c>
       <c r="D33" t="n">
-        <v>35.66075944394098</v>
+        <v>101.3605256638653</v>
       </c>
       <c r="E33" t="n">
-        <v>35.66075944394098</v>
+        <v>101.3605256638653</v>
       </c>
       <c r="F33" t="n">
         <v>35.66075944394098</v>
@@ -6780,49 +6780,49 @@
         <v>35.66075944394098</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982132</v>
+        <v>73.6240854598213</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881954</v>
+        <v>190.9570045881953</v>
       </c>
       <c r="M33" t="n">
         <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.5386276029598</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219941</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.864680480094</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627595</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800941</v>
+        <v>649.8452293051054</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800941</v>
+        <v>649.8452293051054</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218871</v>
+        <v>649.1801149468984</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5752534987672</v>
+        <v>626.0330350418243</v>
       </c>
       <c r="V33" t="n">
-        <v>495.7894036524692</v>
+        <v>382.9533169454584</v>
       </c>
       <c r="W33" t="n">
-        <v>226.3908343827605</v>
+        <v>113.5547476757497</v>
       </c>
       <c r="X33" t="n">
-        <v>223.3600727175026</v>
+        <v>110.5239860104918</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.1966123708761</v>
+        <v>101.3605256638653</v>
       </c>
     </row>
     <row r="34">
@@ -6844,40 +6844,40 @@
         <v>35.66075944394098</v>
       </c>
       <c r="F34" t="n">
-        <v>110.2924818346355</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="G34" t="n">
-        <v>110.2924818346355</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="H34" t="n">
-        <v>158.2956639434722</v>
+        <v>83.66394155277771</v>
       </c>
       <c r="I34" t="n">
-        <v>158.2956639434722</v>
+        <v>132.628838952449</v>
       </c>
       <c r="J34" t="n">
-        <v>251.427788223349</v>
+        <v>132.628838952449</v>
       </c>
       <c r="K34" t="n">
-        <v>251.427788223349</v>
+        <v>132.628838952449</v>
       </c>
       <c r="L34" t="n">
-        <v>251.427788223349</v>
+        <v>132.628838952449</v>
       </c>
       <c r="M34" t="n">
-        <v>251.427788223349</v>
+        <v>132.628838952449</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966765</v>
+        <v>249.2804059537976</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966765</v>
+        <v>249.2804059537976</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966765</v>
+        <v>249.2804059537976</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966765</v>
+        <v>249.2804059537976</v>
       </c>
       <c r="R34" t="n">
         <v>260.0540801966765</v>
@@ -6895,10 +6895,10 @@
         <v>122.9678848370221</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099181</v>
+        <v>46.2019790809918</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010574</v>
+        <v>38.51814573010573</v>
       </c>
       <c r="Y34" t="n">
         <v>35.66075944394098</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361098</v>
+        <v>623.019067536109</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513513</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756357</v>
       </c>
       <c r="E35" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786671</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998701</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9005435987449</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K35" t="n">
-        <v>244.9005435987449</v>
+        <v>278.6930660259305</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6213860795049</v>
+        <v>536.5492673022588</v>
       </c>
       <c r="M35" t="n">
-        <v>372.4832851664521</v>
+        <v>617.4111663892061</v>
       </c>
       <c r="N35" t="n">
-        <v>447.8111783021444</v>
+        <v>875.2673676655343</v>
       </c>
       <c r="O35" t="n">
-        <v>705.6673795784727</v>
+        <v>965.4373908349512</v>
       </c>
       <c r="P35" t="n">
-        <v>960.0649035246008</v>
+        <v>965.4373908349512</v>
       </c>
       <c r="Q35" t="n">
-        <v>960.0649035246008</v>
+        <v>965.4373908349512</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984141</v>
+        <v>992.5294845984133</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413444</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782764</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447609</v>
+        <v>726.07772624476</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>271.8693410529968</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="C36" t="n">
-        <v>271.8693410529968</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D36" t="n">
-        <v>271.8693410529968</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E36" t="n">
-        <v>271.8693410529968</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548262</v>
+        <v>58.80019076548261</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7038,28 +7038,28 @@
         <v>778.0407857857554</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857554</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857554</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857554</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857554</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="V36" t="n">
-        <v>534.9610676893894</v>
+        <v>429.7571333999422</v>
       </c>
       <c r="W36" t="n">
-        <v>271.8693410529968</v>
+        <v>429.7571333999422</v>
       </c>
       <c r="X36" t="n">
-        <v>271.8693410529968</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="Y36" t="n">
-        <v>271.8693410529968</v>
+        <v>210.2491390166386</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078061</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361096</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338506</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
         <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786671</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J38" t="n">
-        <v>71.446766797848</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K38" t="n">
-        <v>71.446766797848</v>
+        <v>472.0178398246885</v>
       </c>
       <c r="L38" t="n">
-        <v>329.3029680741764</v>
+        <v>518.7386823054485</v>
       </c>
       <c r="M38" t="n">
-        <v>410.1648671611235</v>
+        <v>751.7707527450958</v>
       </c>
       <c r="N38" t="n">
-        <v>485.4927602968158</v>
+        <v>827.0986458807881</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3489615731442</v>
+        <v>861.3192805734558</v>
       </c>
       <c r="P38" t="n">
-        <v>997.7464855192723</v>
+        <v>861.3192805734558</v>
       </c>
       <c r="Q38" t="n">
-        <v>997.7464855192723</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7464855192723</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V38" t="n">
         <v>992.5294845984138</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413449</v>
+        <v>926.027165841345</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782769</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>355.1801848671561</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C39" t="n">
-        <v>355.1801848671561</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D39" t="n">
-        <v>194.4000686281878</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548262</v>
+        <v>58.80019076548261</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7278,25 +7278,25 @@
         <v>778.0407857857554</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857554</v>
+        <v>584.5147339473672</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857554</v>
+        <v>503.540895469088</v>
       </c>
       <c r="U39" t="n">
-        <v>618.2719115035486</v>
+        <v>263.9165828459682</v>
       </c>
       <c r="V39" t="n">
-        <v>618.2719115035486</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="W39" t="n">
-        <v>355.1801848671561</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="X39" t="n">
-        <v>355.1801848671561</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y39" t="n">
-        <v>355.1801848671561</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078061</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078061</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753174</v>
+        <v>818.4263542753163</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564256</v>
+        <v>708.1276389564246</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465749</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706565</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660731</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G41" t="n">
-        <v>135.148429416404</v>
+        <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06597548400538</v>
+        <v>180.0525228629578</v>
       </c>
       <c r="L41" t="n">
-        <v>313.3864894880867</v>
+        <v>465.3730368670392</v>
       </c>
       <c r="M41" t="n">
-        <v>632.8480600983551</v>
+        <v>784.8346074773076</v>
       </c>
       <c r="N41" t="n">
-        <v>946.7756247573686</v>
+        <v>1098.762172136321</v>
       </c>
       <c r="O41" t="n">
-        <v>980.9962594500363</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="P41" t="n">
-        <v>1204.654878345779</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="Q41" t="n">
-        <v>1354.439930202053</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181027</v>
+        <v>952.8480423181014</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.8460917229736</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>188.8460917229736</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988569</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
         <v>365.0388672322651</v>
@@ -7518,22 +7518,22 @@
         <v>785.2698965201585</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201585</v>
+        <v>762.7295504415063</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2698965201585</v>
+        <v>523.1052378183864</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2698965201585</v>
+        <v>523.1052378183864</v>
       </c>
       <c r="W42" t="n">
-        <v>759.3155385792134</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="X42" t="n">
-        <v>539.8075441959097</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y42" t="n">
-        <v>314.1668511312374</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="K43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="L43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="M43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="N43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="O43" t="n">
-        <v>51.69578692129988</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606952</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606952</v>
+        <v>70.33787732314744</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606952</v>
+        <v>107.5418873023909</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606952</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323091</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931785</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.69578692129988</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753179</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564254</v>
+        <v>708.1276389564248</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706562</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660729</v>
+        <v>314.7730796660721</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400538</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0057267824887</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>545.32624078657</v>
+        <v>707.9121095349432</v>
       </c>
       <c r="M44" t="n">
-        <v>626.1881398735172</v>
+        <v>788.7740086218904</v>
       </c>
       <c r="N44" t="n">
-        <v>940.1157045325308</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1120.61536679929</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P44" t="n">
-        <v>1344.273985695034</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.273985695034</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.940927289812</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200269</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582956</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.848042318103</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378.2583659900099</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8460917229736</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988569</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
@@ -7752,25 +7752,25 @@
         <v>785.2698965201586</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201586</v>
+        <v>591.7438446817704</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201586</v>
+        <v>374.6014976055176</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201586</v>
+        <v>232.5561863518855</v>
       </c>
       <c r="V45" t="n">
-        <v>647.6569352597186</v>
+        <v>232.5561863518855</v>
       </c>
       <c r="W45" t="n">
-        <v>378.2583659900099</v>
+        <v>206.6018284109404</v>
       </c>
       <c r="X45" t="n">
-        <v>378.2583659900099</v>
+        <v>206.6018284109404</v>
       </c>
       <c r="Y45" t="n">
-        <v>378.2583659900099</v>
+        <v>206.6018284109404</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M46" t="n">
-        <v>102.4994933292068</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N46" t="n">
-        <v>102.4994933292068</v>
+        <v>130.133623560695</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4994933292068</v>
+        <v>130.133623560695</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4994933292068</v>
+        <v>130.133623560695</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4994933292068</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R46" t="n">
-        <v>113.0578949031935</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0578949031935</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T46" t="n">
         <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323079</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V46" t="n">
-        <v>77.8649026293178</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
   </sheetData>
@@ -8532,10 +8532,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
@@ -8547,7 +8547,7 @@
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.5187640737787</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9015,10 +9015,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9258,7 +9258,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518401</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
@@ -23264,19 +23264,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>4.832714589321228</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>74.66092914198799</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675152</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>54.51769991620273</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613496</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>84.45764222312992</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769855</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033362</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>88.6019457086953</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>16.73328122929907</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613496</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.090339436214857e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>697996.5169518976</v>
+        <v>697996.5169518979</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793738.7956588138</v>
+        <v>793738.7956588137</v>
       </c>
       <c r="C2" t="n">
         <v>793738.7956588139</v>
       </c>
       <c r="D2" t="n">
-        <v>794197.184147235</v>
+        <v>794197.1841472349</v>
       </c>
       <c r="E2" t="n">
-        <v>683761.8858742211</v>
+        <v>683761.885874221</v>
       </c>
       <c r="F2" t="n">
-        <v>683761.8858742209</v>
+        <v>683761.8858742208</v>
       </c>
       <c r="G2" t="n">
         <v>795346.6939726819</v>
       </c>
       <c r="H2" t="n">
-        <v>795346.6939726825</v>
+        <v>795346.6939726819</v>
       </c>
       <c r="I2" t="n">
-        <v>795346.6939726823</v>
+        <v>795346.6939726821</v>
       </c>
       <c r="J2" t="n">
         <v>795346.6939726821</v>
@@ -26341,19 +26341,19 @@
         <v>795346.6939726825</v>
       </c>
       <c r="L2" t="n">
-        <v>795346.6939726811</v>
+        <v>795346.6939726812</v>
       </c>
       <c r="M2" t="n">
+        <v>795346.6939726822</v>
+      </c>
+      <c r="N2" t="n">
         <v>795346.6939726823</v>
       </c>
-      <c r="N2" t="n">
-        <v>795346.6939726825</v>
-      </c>
       <c r="O2" t="n">
-        <v>795346.6939726825</v>
+        <v>795346.6939726821</v>
       </c>
       <c r="P2" t="n">
-        <v>795346.6939726822</v>
+        <v>795346.6939726823</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913334</v>
+        <v>95439.52541913326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262482</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232272</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924381</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>390035.8808294743</v>
       </c>
       <c r="I4" t="n">
-        <v>390035.8808294744</v>
+        <v>390035.8808294743</v>
       </c>
       <c r="J4" t="n">
         <v>390902.4199788367</v>
       </c>
       <c r="K4" t="n">
-        <v>390902.4199788366</v>
+        <v>390902.4199788367</v>
       </c>
       <c r="L4" t="n">
-        <v>390887.6300114582</v>
+        <v>390887.6300114581</v>
       </c>
       <c r="M4" t="n">
-        <v>390077.6926381396</v>
+        <v>390077.6926381395</v>
       </c>
       <c r="N4" t="n">
-        <v>390077.6926381396</v>
+        <v>390077.6926381395</v>
       </c>
       <c r="O4" t="n">
-        <v>390464.7553018573</v>
+        <v>390464.7553018572</v>
       </c>
       <c r="P4" t="n">
-        <v>390464.7553018573</v>
+        <v>390464.7553018572</v>
       </c>
     </row>
     <row r="5">
@@ -26500,16 +26500,16 @@
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868729</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868729</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329877.0601511186</v>
+        <v>329872.5937669132</v>
       </c>
       <c r="C6" t="n">
-        <v>329877.0601511187</v>
+        <v>329872.5937669135</v>
       </c>
       <c r="D6" t="n">
-        <v>329204.6815930159</v>
+        <v>329201.4885101673</v>
       </c>
       <c r="E6" t="n">
-        <v>56564.8009715068</v>
+        <v>56254.84317123323</v>
       </c>
       <c r="F6" t="n">
-        <v>335690.9161502207</v>
+        <v>335380.9583499471</v>
       </c>
       <c r="G6" t="n">
-        <v>271198.94895825</v>
+        <v>271198.9489582502</v>
       </c>
       <c r="H6" t="n">
-        <v>366638.4743773839</v>
+        <v>366638.4743773834</v>
       </c>
       <c r="I6" t="n">
-        <v>366638.4743773837</v>
+        <v>366638.4743773836</v>
       </c>
       <c r="J6" t="n">
-        <v>213498.3137668027</v>
+        <v>213498.3137668026</v>
       </c>
       <c r="K6" t="n">
         <v>356994.5967736823</v>
       </c>
       <c r="L6" t="n">
-        <v>261032.62306575</v>
+        <v>261032.6230657503</v>
       </c>
       <c r="M6" t="n">
-        <v>318158.3394435327</v>
+        <v>318158.3394435326</v>
       </c>
       <c r="N6" t="n">
-        <v>364355.7057358556</v>
+        <v>364355.7057358555</v>
       </c>
       <c r="O6" t="n">
-        <v>288829.8959827081</v>
+        <v>288829.8959827079</v>
       </c>
       <c r="P6" t="n">
-        <v>361084.8108419517</v>
+        <v>361084.8108419519</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26716,10 +26716,10 @@
         <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758393</v>
@@ -26808,28 +26808,28 @@
         <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492622</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500673</v>
+        <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500673</v>
+        <v>350.824693550067</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.127116640781</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540341</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929155</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700284</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003867</v>
+        <v>90.36388418003844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>351.3166263719594</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
         <v>256.6898085504863</v>
@@ -27944,13 +27944,13 @@
         <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>146.144319312168</v>
       </c>
       <c r="H9" t="n">
-        <v>124.6379672828833</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,19 +27974,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.82978284919219</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28111,28 +28111,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459406</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>14.83300347739745</v>
       </c>
       <c r="M11" t="n">
         <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.3889024275107</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28184,13 +28184,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>7.423956959368681</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
+        <v>3.092858000757218</v>
+      </c>
+      <c r="T12" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="T12" t="n">
-        <v>26.47299028624315</v>
-      </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>108.7201508992347</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615515</v>
       </c>
       <c r="W12" t="n">
         <v>178.1482641530678</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28269,22 +28269,22 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>166.7821544000626</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O13" t="n">
-        <v>38.9416376426118</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
         <v>178.1482641530678</v>
@@ -28348,28 +28348,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>48.55602983105116</v>
       </c>
       <c r="O14" t="n">
         <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>172.7536826322985</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>51.01713032257612</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
@@ -28457,16 +28457,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624315</v>
+        <v>26.47299028624318</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>66.70615240082344</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>78.20665025776449</v>
       </c>
       <c r="X15" t="n">
         <v>178.1482641530678</v>
@@ -28482,22 +28482,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
@@ -28509,22 +28509,22 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918999</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="O16" t="n">
-        <v>154.3811947623615</v>
+        <v>108.908987020949</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2169859636892</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
         <v>241.0097692154761</v>
@@ -28591,28 +28591,28 @@
         <v>195.2251254655481</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>59.92257741254676</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>27.28712823646521</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742198</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
         <v>222.4658813998193</v>
@@ -28621,16 +28621,16 @@
         <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.09285800075719</v>
+        <v>148.5341735199078</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624318</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>74.61994124780944</v>
+        <v>52.15098759615515</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776447</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477849</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300993</v>
+        <v>195.2251254655481</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>138.9112907864444</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742198</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>227.0151034503344</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>130.9559941988206</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
@@ -28937,13 +28937,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615512</v>
+        <v>52.15098759615515</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>125.5186915914502</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0097692154761</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>245.2695510859715</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>73.41535206957488</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5899056703359</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742198</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
@@ -29092,19 +29092,19 @@
         <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29117,19 +29117,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>180.0364051381956</v>
+        <v>26.47299028624306</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764148</v>
+        <v>48.73013617764141</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>192.0751072555103</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29299,7 +29299,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
         <v>213.484750524001</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>103.8922632301013</v>
       </c>
       <c r="S27" t="n">
-        <v>110.7076645167409</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29436,13 +29436,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>190.1654780041063</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29457,22 +29457,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>213.484750524001</v>
+        <v>196.4212460363701</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29591,10 +29591,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29642,16 +29642,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>143.3692808474381</v>
+        <v>17.03302064465564</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.484750524001</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29682,7 +29682,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.484750524001</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
         <v>165.8243976546666</v>
@@ -29694,25 +29694,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889346</v>
+        <v>81.78252893415123</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O31" t="n">
-        <v>70.69657362880847</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.484750524001</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
@@ -29773,7 +29773,7 @@
         <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>194.1953356407504</v>
+        <v>194.1953356407499</v>
       </c>
       <c r="L32" t="n">
         <v>214.3124603908653</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>93.7806705622033</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
@@ -29882,10 +29882,10 @@
         <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>184.4309295675672</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3124603908653</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
@@ -29925,10 +29925,10 @@
         <v>214.3124603908653</v>
       </c>
       <c r="I34" t="n">
-        <v>164.852968067965</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908653</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013919</v>
@@ -29940,7 +29940,7 @@
         <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>25.23358360496579</v>
+        <v>134.3500230272093</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777683</v>
@@ -29952,7 +29952,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908653</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562687</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146301029</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006674</v>
+        <v>56.51453381489826</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q35" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R35" t="n">
-        <v>205.9840094951406</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="S35" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,10 +30074,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>59.04589205419455</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
         <v>125.7355245857741</v>
@@ -30110,7 +30110,7 @@
         <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30122,13 +30122,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.56790584252485</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982948</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,7 +30168,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>102.586482073037</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L37" t="n">
         <v>32.15181624817892</v>
@@ -30180,7 +30180,7 @@
         <v>16.52015736928138</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777683</v>
+        <v>54.41326693043352</v>
       </c>
       <c r="P37" t="n">
         <v>58.4785989002489</v>
@@ -30198,13 +30198,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856401</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,58 +30220,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="I38" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="J38" t="n">
-        <v>127.9027321446403</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146301029</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874428</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>153.7072437906062</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006674</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742201</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="R38" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
         <v>222.4658813998193</v>
@@ -30280,16 +30280,16 @@
         <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
     </row>
     <row r="39">
@@ -30305,10 +30305,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30350,19 +30350,19 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>134.8068235119939</v>
       </c>
       <c r="U39" t="n">
-        <v>79.05688395750394</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206982948</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30396,10 +30396,10 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8243976546666</v>
+        <v>201.3808995885135</v>
       </c>
       <c r="I40" t="n">
-        <v>200.4094700018121</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
         <v>120.239607582909</v>
@@ -30435,13 +30435,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30478,13 +30478,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="I41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
         <v>76.78161896459409</v>
       </c>
       <c r="K41" t="n">
-        <v>6.727192146301029</v>
+        <v>160.2489571755459</v>
       </c>
       <c r="L41" t="n">
         <v>241.009769215476</v>
@@ -30496,16 +30496,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R41" t="n">
-        <v>212.1972505846483</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S41" t="n">
         <v>241.009769215476</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.68294258348463</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30590,19 +30590,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>192.6559809876246</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.239607582909</v>
+        <v>162.9384983295171</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013919</v>
@@ -30657,19 +30657,19 @@
         <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7087369198401</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661806</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.009769215476</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,7 +30718,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459409</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
         <v>241.009769215476</v>
@@ -30733,13 +30733,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>147.7565935091837</v>
+        <v>39.60432012897657</v>
       </c>
       <c r="P44" t="n">
+        <v>15.09197235108881</v>
+      </c>
+      <c r="Q44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>89.71173703742201</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30824,19 +30824,19 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>96.60321135579284</v>
       </c>
       <c r="V45" t="n">
-        <v>104.4120892675667</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30870,7 +30870,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>241.009769215476</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
         <v>164.852968067965</v>
@@ -30888,7 +30888,7 @@
         <v>25.21686539889348</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>119.61879179018</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777682</v>
@@ -30900,13 +30900,13 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
-        <v>214.0950132505702</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
         <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
-        <v>241.009769215476</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P11" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P14" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P17" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R17" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P20" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P23" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P26" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
@@ -35267,7 +35267,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K11" t="n">
         <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258595</v>
+        <v>62.02577365998335</v>
       </c>
       <c r="M11" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514377</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192471</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>74.67716539008875</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462115</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>46.54254681715357</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.462753644834996</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
         <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937857</v>
+        <v>50.93127818937859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192471</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514377</v>
+        <v>124.6448107761949</v>
       </c>
       <c r="O14" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="P14" t="n">
-        <v>157.6617102812097</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564582</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35738,10 +35738,10 @@
         <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,22 +35778,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109545</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235709</v>
+        <v>32.96561390235712</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084284</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462118</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915332</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015884</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35817,10 +35817,10 @@
         <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9023107645847</v>
+        <v>71.43010302317217</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>188.4979333192471</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258595</v>
+        <v>107.1153475951327</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N17" t="n">
-        <v>103.375909181609</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,10 +35905,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181817</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,37 +36121,37 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M20" t="n">
-        <v>188.4979333192471</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>188.4979333192471</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P20" t="n">
-        <v>123.8193184353556</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>4.549222050515153</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J23" t="n">
-        <v>168.4879321213774</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258595</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936132</v>
+        <v>107.9816497389362</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446177</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433478</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583776999</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30210027329034</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.23859578565961</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3329342758221</v>
+        <v>164.2694297881912</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30210027329025</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.78397559684849</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.56566353525776</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>33.21768963103166</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26776456031173</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>187.4681434944494</v>
+        <v>187.4681434944489</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734512</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.38557817241866</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>48.48806273619873</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.45949232290027</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795634</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>8.713426235684413</v>
+        <v>117.829865657928</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.88249923523118</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079265</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916746</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="L35" t="n">
-        <v>47.1927701825859</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="M35" t="n">
         <v>81.67868594641129</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514371</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700286</v>
+        <v>91.08083148425953</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.10246411277374</v>
+        <v>77.17762287390191</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>16.9343829326567</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62211900119024</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.12111318004617</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641129</v>
+        <v>235.3859297370175</v>
       </c>
       <c r="N38" t="n">
         <v>76.08878094514371</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782053</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.55650193384693</v>
       </c>
       <c r="I40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>153.5217650292449</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980619</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618873</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606197</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936128</v>
+        <v>275.5760668848373</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.31570520228138</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702779</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565673</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>42.69889074660816</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>79.23013801959121</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984192</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295475</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.86849640130757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
         <v>234.282577069175</v>
@@ -38029,13 +38029,13 @@
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>182.322891178545</v>
+        <v>74.17061779833786</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
         <v>46.12822383310917</v>
@@ -38044,7 +38044,7 @@
         <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.18537156080946</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.66505209493612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.24821076515303</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
